--- a/MSAL.xlsx
+++ b/MSAL.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\API_Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50945831-C45F-4408-9C6C-27316D12DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956402FE-3DD6-4F4A-B418-F3F06F77B1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
     <sheet name="Auth-Code-PKCE" sheetId="2" r:id="rId2"/>
     <sheet name="client-cred_server-auth" sheetId="3" r:id="rId3"/>
     <sheet name="SPA" sheetId="4" r:id="rId4"/>
+    <sheet name="kid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>mannual auth</t>
   </si>
@@ -4080,6 +4081,1135 @@
         <family val="3"/>
       </rPr>
       <t>"Enter_the_Graph_Endpoint_Herev1.0/me/messages"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'jsonwebtoken'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwksClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>require</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'jwks-rsa'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwksClient</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>jwksUri:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'https://login.microsoftonline.com/common/discovery/keys'</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>callback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getSigningKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>kid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>signingKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>publicKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rsaPublicKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>callback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>signingKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>  });</t>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'YOUR_TOKEN_HERE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>jwt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>algorithms:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'RS256'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] }, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>decoded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Token verification failed:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Decoded token:'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>decoded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
     </r>
   </si>
 </sst>
@@ -4164,7 +5294,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4183,6 +5313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4196,7 +5332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4211,6 +5347,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5829,15 +6977,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>544175</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>29825</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>115001</xdr:rowOff>
+      <xdr:rowOff>124526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5860,7 +7008,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="22336125"/>
+          <a:off x="5095875" y="22345650"/>
           <a:ext cx="8954750" cy="5020376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6182,7 +7330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A209"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6226,8 +7374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC56100-B41C-4542-9E7E-3127BC948EEF}">
   <dimension ref="L1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6254,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2270DBB-3FB7-45DF-920A-AB9AB62B42C8}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,7 +7479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4914CBCE-D593-410A-BA9C-98435392F8B2}">
   <dimension ref="A3:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
@@ -7810,4 +8958,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1E28C6-58D4-4742-A8CC-B34F51D4F832}">
+  <dimension ref="B2:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="91.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>